--- a/Tableau_mini_projet/Tableau User Stories.xlsx
+++ b/Tableau_mini_projet/Tableau User Stories.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3DVP\GIT\mini_projet_tache\Gestionnaire_de_Taches\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3DVP\GIT\mini_projet_tache\Gestionnaire_de_Taches\Tableau_mini_projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DB82DE2-072B-4DCA-8293-777691C18BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE718041-7B6C-4EBB-BB94-92B2501E29E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F0DE2EE6-1028-42B4-AB2B-158DF7B50AF6}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="48">
   <si>
     <t>Column1</t>
   </si>
@@ -99,30 +99,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Statut   </t>
-  </si>
-  <si>
-    <t>-----</t>
-  </si>
-  <si>
-    <t>-------------------------</t>
-  </si>
-  <si>
-    <t>--------------</t>
-  </si>
-  <si>
-    <t>----------------</t>
-  </si>
-  <si>
-    <t>-----------------------------</t>
-  </si>
-  <si>
-    <t>------------------------------</t>
-  </si>
-  <si>
-    <t>--------------------------------------------</t>
-  </si>
-  <si>
-    <t>----------</t>
   </si>
   <si>
     <t xml:space="preserve"> US1 </t>
@@ -715,7 +691,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -766,7 +742,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
@@ -836,10 +812,10 @@
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>12</v>
@@ -864,30 +840,14 @@
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
         <v>10</v>
       </c>
@@ -897,28 +857,28 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>10</v>
@@ -929,28 +889,28 @@
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>10</v>
@@ -961,28 +921,28 @@
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>10</v>
@@ -993,28 +953,28 @@
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="I9" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>10</v>
@@ -1025,28 +985,28 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>10</v>
@@ -1057,28 +1017,28 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>10</v>
